--- a/xlsx/United Nations Development Program_intext.xlsx
+++ b/xlsx/United Nations Development Program_intext.xlsx
@@ -29,7 +29,7 @@
     <t>缩写</t>
   </si>
   <si>
-    <t>政策_政策_智庫_United Nations Development Program</t>
+    <t>政策_政策_智库_United Nations Development Program</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%BA%A6%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>最低度開發國家</t>
+    <t>最低度开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%A7%98%E4%B9%A6%E9%95%BF%E5%8A%9E%E5%85%AC%E5%8E%85</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>人類發展報告</t>
+    <t>人类发展报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%8E%AF%E5%A2%83%E5%9F%BA%E9%87%91</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國大會</t>
+    <t>联合国大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -167,31 +167,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
+    <t>联合国安全理事会否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%8A%E7%A4%BE%E6%9C%83%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國經濟及社會理事會</t>
+    <t>联合国经济及社会理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國秘書處</t>
+    <t>联合国秘书处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際法院</t>
+    <t>国际法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%A8%97%E7%AE%A1%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國託管理事會</t>
+    <t>联合国讬管理事会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_specialized_agencies_of_the_United_Nations</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國糧食及農業組織</t>
+    <t>联合国粮食及农业组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E4%BA%8B%E5%8B%99%E9%AB%98%E7%B4%9A%E5%B0%88%E5%93%A1%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國人權事務高級專員辦事處</t>
+    <t>联合国人权事务高级专员办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Capital_Development_Fund</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E6%B3%95%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國國際貿易法委員會</t>
+    <t>联合国国际贸易法委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%B4%B8%E6%98%93%E5%92%8C%E5%8F%91%E5%B1%95%E4%BC%9A%E8%AE%AE</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國開發計劃署</t>
+    <t>联合国开发计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%92%B0%E5%A2%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國環境署</t>
+    <t>联合国环境署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNEP_OzonAction</t>
@@ -263,31 +263,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%8F%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>聯合國人口基金</t>
+    <t>联合国人口基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%B1%85%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國人居署</t>
+    <t>联合国人居署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9B%A3%E6%B0%91%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國難民署</t>
+    <t>联合国难民署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權理事會</t>
+    <t>联合国人权理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%92%E7%AB%A5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國兒童基金會</t>
+    <t>联合国儿童基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Institute_for_Disarmament_Research</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聯合國大學</t>
+    <t>联合国大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNU-OP</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B3%A7%E9%A3%9F%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>世界糧食計劃署</t>
+    <t>世界粮食计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%84%9B%E6%BB%8B%E7%97%85%E8%81%AF%E5%90%88%E8%A6%8F%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國愛滋病聯合規劃署</t>
+    <t>联合国爱滋病联合规划署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Interregional_Crime_and_Justice_Research_Institute</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A4%BE%E6%9C%83%E7%99%BC%E5%B1%95%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>聯合國社會發展研究所</t>
+    <t>联合国社会发展研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際民用航空組織</t>
+    <t>国际民用航空组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Fund_for_Agricultural_Development</t>
@@ -389,25 +389,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B5%B7%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際海事組織</t>
+    <t>国际海事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E5%B0%88%E9%96%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>政府間氣候變化專門委員會</t>
+    <t>政府间气候变化专门委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E4%BF%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際電信聯盟</t>
+    <t>国际电信联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Development_Assistance_Framework</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E8%82%B2%E3%80%81%E7%A7%91%E5%AD%B8%E5%8F%8A%E6%96%87%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教育、科學及文化組織</t>
+    <t>联合国教育、科学及文化组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Fund_for_International_Partnerships_(UNFIP)</t>
@@ -455,31 +455,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%9C%8B%E9%83%B5%E6%94%BF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>萬國郵政聯盟</t>
+    <t>万国邮政联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界智慧財產權組織</t>
+    <t>世界智慧财产权组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%A3%E8%B1%A1%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界氣象組織</t>
+    <t>世界气象组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%95%8F%E9%A1%8C%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>前南斯拉夫問題國際刑事法庭</t>
+    <t>前南斯拉夫问题国际刑事法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>獅子山特別法庭</t>
+    <t>狮子山特别法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Special_Panels_of_the_Dili_District_Court</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E9%81%93%E4%BA%8B%E5%8B%99%E5%8D%94%E8%AA%BF%E5%BB%B3</t>
   </si>
   <si>
-    <t>聯合國人道事務協調廳</t>
+    <t>联合国人道事务协调厅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_Disarmament_Affairs</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%AF%92%E5%93%81%E5%92%8C%E7%8A%AF%E7%BD%AA%E5%95%8F%E9%A1%8C%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>聯合國毒品和犯罪問題辦公室</t>
+    <t>联合国毒品和犯罪问题办公室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_the_High_Representative_for_the_Least_Developed_Countries,_Landlocked_Developing_Countries_and_Small_Island_Developing_States</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B8%BD%E9%83%A8%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>聯合國總部大樓</t>
+    <t>联合国总部大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%97%A5%E5%86%85%E7%93%A6%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A5%88%E6%B4%9B%E6%AF%94%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國奈洛比辦事處</t>
+    <t>联合国奈洛比办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_organizations_by_location</t>
@@ -635,25 +635,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%8D%80%E5%9F%9F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>聯合國區域集團</t>
+    <t>联合国区域集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國安全理事會常任理事國</t>
+    <t>联合国安全理事会常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_Union_and_the_United_Nations</t>
@@ -671,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%AD%A6%E5%AF%9F</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%B1%E5%90%8C%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>聯合國共同宣言</t>
+    <t>联合国共同宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%B4%E6%8C%81%E5%92%8C%E5%B9%B3%E8%A1%8C%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8C%81%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>維持和平</t>
+    <t>维持和平</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_United_Nations_peacekeeping</t>
@@ -725,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國決議</t>
+    <t>联合国决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_resolutions_at_the_sixty-sixth_session_of_the_United_Nations_General_Assembly</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會決議</t>
+    <t>联合国安全理事会决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_Security_Council_resolutions_concerning_Cyprus</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%9C%9D%E9%AE%AE%E7%9B%B8%E9%97%9C%E6%B1%BA%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國安全理事會朝鮮相關決議列表</t>
+    <t>联合国安全理事会朝鲜相关决议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_the_UN_resolutions_concerning_Palestine</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>聯合國憲章</t>
+    <t>联合国宪章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Global_Compact</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%80%9A%E8%A1%8C%E8%AD%89</t>
   </si>
   <si>
-    <t>聯合國通行證</t>
+    <t>联合国通行证</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Official_languages_of_the_United_Nations</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%95%A6%E6%A3%AE%E6%9E%97%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>布列敦森林體系</t>
+    <t>布列敦森林体系</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Delivering_as_One</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>千禧高峰會</t>
+    <t>千禧高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B9%B4%E5%8F%91%E5%B1%95%E7%9B%AE%E6%A0%87</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>聯合國改革</t>
+    <t>联合国改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%AE%AE%E4%BC%9A%E5%A4%A7%E4%BC%9A</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BA%AA%E5%BF%B5%E6%B4%BB%E5%8A%A8</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>聯合國日</t>
+    <t>联合国日</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_television_film_series</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%8C%96%E4%B8%AD%E7%9A%84%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>大眾文化中的聯合國</t>
+    <t>大众文化中的联合国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comprehensive_Nuclear-Test-Ban_Treaty_Organization</t>
@@ -983,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8E%9F%E5%AD%90%E8%83%BD%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>國際原子能機構</t>
+    <t>国际原子能机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際刑事法院</t>
+    <t>国际刑事法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B5%B7%E5%BA%95%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -1007,19 +1007,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>禁止化學武器組織</t>
+    <t>禁止化学武器组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1073,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
